--- a/data/trans_orig/P43D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB046594-D045-424A-A570-17600C7A3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED159FC-8230-4FAD-8402-01FD567025AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E863D6E-C349-4083-8DED-B4E20C103BFA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E6FAAD6-EE15-4757-8794-87D731890328}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="417">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,1228 +92,1204 @@
     <t>34,5%</t>
   </si>
   <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>23,3%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>34,02%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>20,02%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>12,49%</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3F9BFE-3147-4343-ABAF-2C606026B86E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B51736-C88F-49A0-B697-1A764D04CC0F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3442,13 +3418,13 @@
         <v>109971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M36" s="7">
         <v>107</v>
@@ -3457,13 +3433,13 @@
         <v>109971</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3467,13 @@
         <v>79705</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3506,13 +3482,13 @@
         <v>79705</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3542,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3591,13 +3567,13 @@
         <v>66306</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M39" s="7">
         <v>62</v>
@@ -3606,13 +3582,13 @@
         <v>66306</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3616,13 @@
         <v>124544</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M40" s="7">
         <v>118</v>
@@ -3655,13 +3631,13 @@
         <v>124544</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3665,13 @@
         <v>100253</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M41" s="7">
         <v>95</v>
@@ -3704,13 +3680,13 @@
         <v>100253</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3714,13 @@
         <v>63854</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M42" s="7">
         <v>59</v>
@@ -3753,13 +3729,13 @@
         <v>63854</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,10 +3817,10 @@
         <v>42</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M44" s="7">
         <v>410</v>
@@ -3856,10 +3832,10 @@
         <v>42</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3863,13 @@
         <v>554054</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M45" s="7">
         <v>542</v>
@@ -3902,13 +3878,13 @@
         <v>554054</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3912,13 @@
         <v>471680</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M46" s="7">
         <v>460</v>
@@ -3951,13 +3927,13 @@
         <v>471680</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3961,13 @@
         <v>331836</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M47" s="7">
         <v>318</v>
@@ -4000,13 +3976,13 @@
         <v>331836</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4007,7 @@
         <v>1730</v>
       </c>
       <c r="I48" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>27</v>
@@ -4046,7 +4022,7 @@
         <v>1730</v>
       </c>
       <c r="N48" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>27</v>
@@ -4060,7 +4036,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28D0BC7-4271-483D-88C6-CA0EB1880762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E2AA4-0389-42CD-9D36-335CC7D9994A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4448,13 +4424,13 @@
         <v>72613</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -4463,13 +4439,13 @@
         <v>72613</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4473,13 @@
         <v>120374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -4512,13 +4488,13 @@
         <v>120374</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4522,13 @@
         <v>111131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -4561,13 +4537,13 @@
         <v>111131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4571,13 @@
         <v>75164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -4610,13 +4586,13 @@
         <v>75164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4671,13 @@
         <v>35259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -4710,13 +4686,13 @@
         <v>35259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4720,13 @@
         <v>79424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" s="7">
         <v>74</v>
@@ -4759,13 +4735,13 @@
         <v>79424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,10 +4772,10 @@
         <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4811,10 +4787,10 @@
         <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4818,13 @@
         <v>33678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -4857,13 +4833,13 @@
         <v>33678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4918,13 @@
         <v>83761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4957,13 +4933,13 @@
         <v>83761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4967,13 @@
         <v>131189</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -5006,13 +4982,13 @@
         <v>131189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5016,13 @@
         <v>149369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -5055,13 +5031,13 @@
         <v>149369</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5065,13 @@
         <v>95823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -5104,13 +5080,13 @@
         <v>95823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5165,13 @@
         <v>18872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5204,13 +5180,13 @@
         <v>18872</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5214,13 @@
         <v>50806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5253,13 +5229,13 @@
         <v>50806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5263,13 @@
         <v>43272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -5302,13 +5278,13 @@
         <v>43272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5312,13 @@
         <v>23714</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -5351,13 +5327,13 @@
         <v>23714</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5412,13 @@
         <v>40626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5451,13 +5427,13 @@
         <v>40626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5461,13 @@
         <v>58085</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5500,13 +5476,13 @@
         <v>58085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5510,13 @@
         <v>33850</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -5549,13 +5525,13 @@
         <v>33850</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5559,13 @@
         <v>20038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5598,13 +5574,13 @@
         <v>20038</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5659,13 @@
         <v>92492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>85</v>
@@ -5698,13 +5674,13 @@
         <v>92492</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5708,13 @@
         <v>150691</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5747,13 +5723,13 @@
         <v>150691</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5757,13 @@
         <v>114871</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -5796,13 +5772,13 @@
         <v>114871</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5806,13 @@
         <v>80321</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M37" s="7">
         <v>69</v>
@@ -5845,13 +5821,13 @@
         <v>80321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5881,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -5930,13 +5906,13 @@
         <v>102666</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="M39" s="7">
         <v>94</v>
@@ -5945,13 +5921,13 @@
         <v>102666</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5955,13 @@
         <v>199780</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M40" s="7">
         <v>185</v>
@@ -5994,13 +5970,13 @@
         <v>199780</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6004,13 @@
         <v>142026</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M41" s="7">
         <v>130</v>
@@ -6043,13 +6019,13 @@
         <v>142026</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6053,13 @@
         <v>85820</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M42" s="7">
         <v>77</v>
@@ -6092,13 +6068,13 @@
         <v>85820</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6153,13 @@
         <v>446289</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M44" s="7">
         <v>411</v>
@@ -6192,13 +6168,13 @@
         <v>446289</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6202,13 @@
         <v>790350</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M45" s="7">
         <v>731</v>
@@ -6241,13 +6217,13 @@
         <v>790350</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6251,13 @@
         <v>638729</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M46" s="7">
         <v>586</v>
@@ -6290,13 +6266,13 @@
         <v>638729</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6300,13 @@
         <v>414556</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M47" s="7">
         <v>376</v>
@@ -6339,13 +6315,13 @@
         <v>414556</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6375,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +6399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F0695-22A8-48F7-9353-34F4F3F2F136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4F6E4-C745-4425-817E-F782F4F066A2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6440,7 +6416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6563,10 +6539,10 @@
         <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6578,10 +6554,10 @@
         <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6585,13 @@
         <v>75507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6624,13 +6600,13 @@
         <v>75507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6634,13 @@
         <v>56023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -6673,13 +6649,13 @@
         <v>56023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6683,13 @@
         <v>35124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -6722,13 +6698,13 @@
         <v>35124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6783,13 @@
         <v>88153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6822,13 +6798,13 @@
         <v>88153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6832,13 @@
         <v>182623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -6871,13 +6847,13 @@
         <v>182623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6881,13 @@
         <v>72328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -6920,13 +6896,13 @@
         <v>72328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6930,13 @@
         <v>41060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6969,13 +6945,13 @@
         <v>41060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,10 +7030,10 @@
         <v>75644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>244</v>
@@ -7069,10 +7045,10 @@
         <v>75644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>244</v>
@@ -7207,7 +7183,7 @@
         <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7222,7 +7198,7 @@
         <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7277,13 @@
         <v>55527</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -7316,13 +7292,13 @@
         <v>55527</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7326,13 @@
         <v>104703</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7365,13 +7341,13 @@
         <v>104703</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,7 +7375,7 @@
         <v>70879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>260</v>
@@ -7414,7 +7390,7 @@
         <v>70879</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>260</v>
@@ -7454,7 +7430,7 @@
         <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -7469,7 +7445,7 @@
         <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7524,13 @@
         <v>16818</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7563,13 +7539,13 @@
         <v>16818</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7573,13 @@
         <v>47659</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7612,13 +7588,13 @@
         <v>47659</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7622,13 @@
         <v>22332</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -7661,13 +7637,13 @@
         <v>22332</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7671,13 @@
         <v>7880</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7710,13 +7686,13 @@
         <v>7880</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7771,13 @@
         <v>17242</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -7810,13 +7786,13 @@
         <v>17242</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7820,13 @@
         <v>29868</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -7859,13 +7835,13 @@
         <v>29868</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7869,13 @@
         <v>10736</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -7908,13 +7884,13 @@
         <v>10736</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7918,13 @@
         <v>4897</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7957,13 +7933,13 @@
         <v>4897</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,13 +8018,13 @@
         <v>102633</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -8057,13 +8033,13 @@
         <v>102633</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8067,13 @@
         <v>171465</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -8106,13 +8082,13 @@
         <v>171465</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8116,13 @@
         <v>91494</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M36" s="7">
         <v>88</v>
@@ -8155,13 +8131,13 @@
         <v>91494</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8165,13 @@
         <v>54604</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8204,13 +8180,13 @@
         <v>54604</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,7 +8240,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8289,13 +8265,13 @@
         <v>138760</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="M39" s="7">
         <v>124</v>
@@ -8304,13 +8280,13 @@
         <v>138760</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>303</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,13 +8314,13 @@
         <v>206180</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M40" s="7">
         <v>194</v>
@@ -8353,13 +8329,13 @@
         <v>206180</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,13 +8363,13 @@
         <v>124152</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="M41" s="7">
         <v>115</v>
@@ -8402,13 +8378,13 @@
         <v>124152</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8412,13 @@
         <v>74271</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M42" s="7">
         <v>67</v>
@@ -8451,13 +8427,13 @@
         <v>74271</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8536,13 +8512,13 @@
         <v>530927</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M44" s="7">
         <v>484</v>
@@ -8551,13 +8527,13 @@
         <v>530927</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,13 +8561,13 @@
         <v>931197</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>888</v>
@@ -8600,13 +8576,13 @@
         <v>931197</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8634,13 +8610,13 @@
         <v>494240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>478</v>
@@ -8649,13 +8625,13 @@
         <v>494240</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,7 +8659,7 @@
         <v>282721</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>319</v>
@@ -8698,7 +8674,7 @@
         <v>282721</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>319</v>
@@ -8758,7 +8734,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8782,7 +8758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C485EEC-B7AC-4365-842E-2674A8D30ED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFED809-7366-4950-9C6A-D0CE10945544}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8968,13 +8944,13 @@
         <v>59602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -8983,13 +8959,13 @@
         <v>59602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9017,13 +8993,13 @@
         <v>17906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -9032,13 +9008,13 @@
         <v>17906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,13 +9042,13 @@
         <v>24282</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -9081,13 +9057,13 @@
         <v>24282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,13 +9142,13 @@
         <v>101810</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -9181,13 +9157,13 @@
         <v>101810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9215,13 +9191,13 @@
         <v>83034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -9230,13 +9206,13 @@
         <v>83034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9264,13 +9240,13 @@
         <v>37319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -9279,13 +9255,13 @@
         <v>37319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9313,13 +9289,13 @@
         <v>28336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -9328,13 +9304,13 @@
         <v>28336</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,13 +9389,13 @@
         <v>62416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -9428,13 +9404,13 @@
         <v>62416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9462,13 +9438,13 @@
         <v>47724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -9477,13 +9453,13 @@
         <v>47724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,13 +9487,13 @@
         <v>28412</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -9526,13 +9502,13 @@
         <v>28412</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9560,13 +9536,13 @@
         <v>28273</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -9575,13 +9551,13 @@
         <v>28273</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9660,13 +9636,13 @@
         <v>101350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -9675,13 +9651,13 @@
         <v>101350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9709,13 +9685,13 @@
         <v>62927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -9724,13 +9700,13 @@
         <v>62927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,13 +9734,13 @@
         <v>34363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -9773,13 +9749,13 @@
         <v>34363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9807,13 +9783,13 @@
         <v>27524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -9822,13 +9798,13 @@
         <v>27524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,13 +9883,13 @@
         <v>15413</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -9922,13 +9898,13 @@
         <v>15413</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9956,13 +9932,13 @@
         <v>26940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -9971,13 +9947,13 @@
         <v>26940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10005,13 +9981,13 @@
         <v>16776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -10020,13 +9996,13 @@
         <v>16776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10054,13 +10030,13 @@
         <v>5821</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -10069,13 +10045,13 @@
         <v>5821</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10154,13 +10130,13 @@
         <v>22194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -10169,13 +10145,13 @@
         <v>22194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10203,13 +10179,13 @@
         <v>32991</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -10218,13 +10194,13 @@
         <v>32991</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10252,13 +10228,13 @@
         <v>27502</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -10267,13 +10243,13 @@
         <v>27502</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10301,13 +10277,13 @@
         <v>9699</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>391</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -10316,13 +10292,13 @@
         <v>9699</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>391</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10401,13 +10377,13 @@
         <v>79322</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>393</v>
+        <v>64</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>394</v>
+        <v>255</v>
       </c>
       <c r="M34" s="7">
         <v>121</v>
@@ -10416,13 +10392,13 @@
         <v>79322</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>393</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10450,13 +10426,13 @@
         <v>100792</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -10465,13 +10441,13 @@
         <v>100792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10499,13 +10475,13 @@
         <v>102494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
@@ -10514,13 +10490,13 @@
         <v>102494</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10548,13 +10524,13 @@
         <v>75724</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -10563,13 +10539,13 @@
         <v>75724</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10623,7 +10599,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10648,13 +10624,13 @@
         <v>54496</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>398</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M39" s="7">
         <v>78</v>
@@ -10663,13 +10639,13 @@
         <v>54496</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>264</v>
+        <v>398</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10697,13 +10673,13 @@
         <v>125222</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M40" s="7">
         <v>155</v>
@@ -10712,13 +10688,13 @@
         <v>125222</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10746,13 +10722,13 @@
         <v>83500</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M41" s="7">
         <v>103</v>
@@ -10761,13 +10737,13 @@
         <v>83500</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10795,13 +10771,13 @@
         <v>24535</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M42" s="7">
         <v>29</v>
@@ -10810,13 +10786,13 @@
         <v>24535</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10895,13 +10871,13 @@
         <v>495148</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>415</v>
+        <v>123</v>
       </c>
       <c r="M44" s="7">
         <v>798</v>
@@ -10910,13 +10886,13 @@
         <v>495148</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>415</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10944,13 +10920,13 @@
         <v>539232</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M45" s="7">
         <v>808</v>
@@ -10959,13 +10935,13 @@
         <v>539232</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10993,13 +10969,13 @@
         <v>348271</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
@@ -11008,13 +10984,13 @@
         <v>348271</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>421</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11042,13 +11018,13 @@
         <v>224194</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>424</v>
+        <v>140</v>
       </c>
       <c r="M47" s="7">
         <v>314</v>
@@ -11057,13 +11033,13 @@
         <v>224194</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>424</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11117,7 +11093,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED159FC-8230-4FAD-8402-01FD567025AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{847DA197-0DBA-48E7-A72E-5AEF90184BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E6FAAD6-EE15-4757-8794-87D731890328}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0E2BD8-9E27-45AE-98E4-8F0A64BBF79C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="426">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -92,10 +92,10 @@
     <t>34,5%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -104,1192 +104,1219 @@
     <t>24,19%</t>
   </si>
   <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2015 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B51736-C88F-49A0-B697-1A764D04CC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18D79A6-04E5-40BE-8251-ECC623B25E89}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3122,13 +3149,13 @@
         <v>34404</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3137,13 +3164,13 @@
         <v>34404</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3198,13 @@
         <v>29246</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -3186,13 +3213,13 @@
         <v>29246</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3247,13 @@
         <v>24525</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -3235,13 +3262,13 @@
         <v>24525</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3322,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3320,13 +3347,13 @@
         <v>93556</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -3335,13 +3362,13 @@
         <v>93556</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3396,13 @@
         <v>116416</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>114</v>
@@ -3384,13 +3411,13 @@
         <v>116416</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3445,13 @@
         <v>109971</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M36" s="7">
         <v>107</v>
@@ -3433,13 +3460,13 @@
         <v>109971</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3494,13 @@
         <v>79705</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3482,13 +3509,13 @@
         <v>79705</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,7 +3569,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3567,13 +3594,13 @@
         <v>66306</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M39" s="7">
         <v>62</v>
@@ -3582,13 +3609,13 @@
         <v>66306</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3643,13 @@
         <v>124544</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M40" s="7">
         <v>118</v>
@@ -3631,13 +3658,13 @@
         <v>124544</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3692,13 @@
         <v>100253</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M41" s="7">
         <v>95</v>
@@ -3680,13 +3707,13 @@
         <v>100253</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3741,13 @@
         <v>63854</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M42" s="7">
         <v>59</v>
@@ -3729,13 +3756,13 @@
         <v>63854</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,10 +3844,10 @@
         <v>42</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M44" s="7">
         <v>410</v>
@@ -3832,10 +3859,10 @@
         <v>42</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3890,13 @@
         <v>554054</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M45" s="7">
         <v>542</v>
@@ -3878,13 +3905,13 @@
         <v>554054</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3939,13 @@
         <v>471680</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M46" s="7">
         <v>460</v>
@@ -3927,13 +3954,13 @@
         <v>471680</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3988,13 @@
         <v>331836</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M47" s="7">
         <v>318</v>
@@ -3976,13 +4003,13 @@
         <v>331836</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,7 +4034,7 @@
         <v>1730</v>
       </c>
       <c r="I48" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>27</v>
@@ -4022,7 +4049,7 @@
         <v>1730</v>
       </c>
       <c r="N48" s="7">
-        <v>1779109</v>
+        <v>1779110</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>27</v>
@@ -4036,7 +4063,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7E2AA4-0389-42CD-9D36-335CC7D9994A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEB7C52-6EDD-4460-A283-324266CC62D6}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4424,13 +4451,13 @@
         <v>72613</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -4439,13 +4466,13 @@
         <v>72613</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4500,10 @@
         <v>120374</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>136</v>
@@ -4488,10 +4515,10 @@
         <v>120374</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>136</v>
@@ -4528,7 +4555,7 @@
         <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -4543,7 +4570,7 @@
         <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4598,13 @@
         <v>75164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -4586,13 +4613,13 @@
         <v>75164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4698,13 @@
         <v>35259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -4686,13 +4713,13 @@
         <v>35259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4747,13 @@
         <v>79424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M15" s="7">
         <v>74</v>
@@ -4735,13 +4762,13 @@
         <v>79424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4796,13 @@
         <v>44210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4784,13 +4811,13 @@
         <v>44210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4845,13 @@
         <v>33678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -4833,13 +4860,13 @@
         <v>33678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4945,13 @@
         <v>83761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4933,13 +4960,13 @@
         <v>83761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4994,13 @@
         <v>131189</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -4982,13 +5009,13 @@
         <v>131189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5043,13 @@
         <v>149369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -5031,13 +5058,13 @@
         <v>149369</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5092,13 @@
         <v>95823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -5080,13 +5107,13 @@
         <v>95823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5192,13 @@
         <v>18872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5180,13 +5207,13 @@
         <v>18872</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5241,13 @@
         <v>50806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5229,13 +5256,13 @@
         <v>50806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5290,13 @@
         <v>43272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -5278,13 +5305,13 @@
         <v>43272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5339,13 @@
         <v>23714</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -5327,13 +5354,13 @@
         <v>23714</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5439,13 @@
         <v>40626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5427,13 +5454,13 @@
         <v>40626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5488,13 @@
         <v>58085</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5476,13 +5503,13 @@
         <v>58085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5537,13 @@
         <v>33850</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -5525,13 +5552,13 @@
         <v>33850</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5586,13 @@
         <v>20038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5574,13 +5601,13 @@
         <v>20038</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5661,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5659,13 +5686,13 @@
         <v>92492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>85</v>
@@ -5674,13 +5701,13 @@
         <v>92492</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5735,13 @@
         <v>150691</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5723,13 +5750,13 @@
         <v>150691</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5784,13 @@
         <v>114871</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -5772,13 +5799,13 @@
         <v>114871</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5833,13 @@
         <v>80321</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>69</v>
@@ -5821,13 +5848,13 @@
         <v>80321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5908,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -5906,13 +5933,13 @@
         <v>102666</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M39" s="7">
         <v>94</v>
@@ -5921,13 +5948,13 @@
         <v>102666</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5982,13 @@
         <v>199780</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M40" s="7">
         <v>185</v>
@@ -5970,13 +5997,13 @@
         <v>199780</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6031,13 @@
         <v>142026</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>130</v>
@@ -6019,13 +6046,13 @@
         <v>142026</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6080,13 @@
         <v>85820</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M42" s="7">
         <v>77</v>
@@ -6068,13 +6095,13 @@
         <v>85820</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6180,13 @@
         <v>446289</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M44" s="7">
         <v>411</v>
@@ -6168,13 +6195,13 @@
         <v>446289</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6229,13 @@
         <v>790350</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M45" s="7">
         <v>731</v>
@@ -6217,13 +6244,13 @@
         <v>790350</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6278,13 @@
         <v>638729</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M46" s="7">
         <v>586</v>
@@ -6266,13 +6293,13 @@
         <v>638729</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6327,13 @@
         <v>414556</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M47" s="7">
         <v>376</v>
@@ -6315,13 +6342,13 @@
         <v>414556</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6402,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6399,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4F6E4-C745-4425-817E-F782F4F066A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D4D6E-DBB3-427A-A126-D8FFBA3F6872}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6416,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6539,10 +6566,10 @@
         <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6554,10 +6581,10 @@
         <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6612,13 @@
         <v>75507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6600,13 +6627,13 @@
         <v>75507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6661,13 @@
         <v>56023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -6649,13 +6676,13 @@
         <v>56023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6710,13 @@
         <v>35124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -6698,13 +6725,13 @@
         <v>35124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6810,13 @@
         <v>88153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6798,13 +6825,13 @@
         <v>88153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6859,13 @@
         <v>182623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -6847,13 +6874,13 @@
         <v>182623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6908,13 @@
         <v>72328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -6896,13 +6923,13 @@
         <v>72328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6957,13 @@
         <v>41060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6945,13 +6972,13 @@
         <v>41060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7057,13 @@
         <v>75644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7045,13 +7072,13 @@
         <v>75644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7106,13 @@
         <v>113194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M15" s="7">
         <v>112</v>
@@ -7094,13 +7121,13 @@
         <v>113194</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7155,13 @@
         <v>46297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -7143,13 +7170,13 @@
         <v>46297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7204,13 @@
         <v>26105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7192,13 +7219,13 @@
         <v>26105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7304,13 @@
         <v>55527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -7292,13 +7319,13 @@
         <v>55527</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7353,13 @@
         <v>104703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7341,13 +7368,13 @@
         <v>104703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7402,13 @@
         <v>70879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -7390,13 +7417,13 @@
         <v>70879</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7451,13 @@
         <v>38780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -7439,13 +7466,13 @@
         <v>38780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7551,13 @@
         <v>16818</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7539,13 +7566,13 @@
         <v>16818</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7600,13 @@
         <v>47659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7588,13 +7615,13 @@
         <v>47659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7649,13 @@
         <v>22332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -7637,13 +7664,13 @@
         <v>22332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7698,13 @@
         <v>7880</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7686,13 +7713,13 @@
         <v>7880</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7798,13 @@
         <v>17242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -7786,13 +7813,13 @@
         <v>17242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7847,13 @@
         <v>29868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -7835,13 +7862,13 @@
         <v>29868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7896,13 @@
         <v>10736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -7884,13 +7911,13 @@
         <v>10736</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7945,13 @@
         <v>4897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7933,13 +7960,13 @@
         <v>4897</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,7 +8020,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8018,13 +8045,13 @@
         <v>102633</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -8033,13 +8060,13 @@
         <v>102633</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8094,13 @@
         <v>171465</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -8082,13 +8109,13 @@
         <v>171465</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8143,13 @@
         <v>91494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M36" s="7">
         <v>88</v>
@@ -8131,13 +8158,13 @@
         <v>91494</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,13 +8192,13 @@
         <v>54604</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8180,13 +8207,13 @@
         <v>54604</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,7 +8267,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -8265,13 +8292,13 @@
         <v>138760</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="M39" s="7">
         <v>124</v>
@@ -8280,13 +8307,13 @@
         <v>138760</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8341,13 @@
         <v>206180</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M40" s="7">
         <v>194</v>
@@ -8329,13 +8356,13 @@
         <v>206180</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8390,13 @@
         <v>124152</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="M41" s="7">
         <v>115</v>
@@ -8378,13 +8405,13 @@
         <v>124152</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8439,13 @@
         <v>74271</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M42" s="7">
         <v>67</v>
@@ -8427,13 +8454,13 @@
         <v>74271</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8512,13 +8539,13 @@
         <v>530927</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M44" s="7">
         <v>484</v>
@@ -8527,13 +8554,13 @@
         <v>530927</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8588,13 @@
         <v>931197</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M45" s="7">
         <v>888</v>
@@ -8576,13 +8603,13 @@
         <v>931197</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,13 +8637,13 @@
         <v>494240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>478</v>
@@ -8625,13 +8652,13 @@
         <v>494240</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,13 +8686,13 @@
         <v>282721</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M47" s="7">
         <v>270</v>
@@ -8674,13 +8701,13 @@
         <v>282721</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,7 +8761,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8758,7 +8785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFED809-7366-4950-9C6A-D0CE10945544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6AD2E6-FB06-4690-9168-739A0A500A8F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8775,7 +8802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8895,13 +8922,13 @@
         <v>58147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -8910,13 +8937,13 @@
         <v>58147</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8944,13 +8971,13 @@
         <v>59602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -8959,13 +8986,13 @@
         <v>59602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8993,13 +9020,13 @@
         <v>17906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -9008,13 +9035,13 @@
         <v>17906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9042,13 +9069,13 @@
         <v>24282</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -9057,13 +9084,13 @@
         <v>24282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,13 +9169,13 @@
         <v>101810</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -9157,13 +9184,13 @@
         <v>101810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9218,13 @@
         <v>83034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -9206,13 +9233,13 @@
         <v>83034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9240,13 +9267,13 @@
         <v>37319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -9255,13 +9282,13 @@
         <v>37319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9289,13 +9316,13 @@
         <v>28336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -9304,13 +9331,13 @@
         <v>28336</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9416,13 @@
         <v>62416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -9404,13 +9431,13 @@
         <v>62416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9438,13 +9465,13 @@
         <v>47724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -9453,13 +9480,13 @@
         <v>47724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>244</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9487,13 +9514,13 @@
         <v>28412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -9502,13 +9529,13 @@
         <v>28412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,13 +9563,13 @@
         <v>28273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -9551,13 +9578,13 @@
         <v>28273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9636,13 +9663,13 @@
         <v>101350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -9651,13 +9678,13 @@
         <v>101350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9685,13 +9712,13 @@
         <v>62927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -9700,13 +9727,13 @@
         <v>62927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9734,13 +9761,13 @@
         <v>34363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -9749,13 +9776,13 @@
         <v>34363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9783,13 +9810,13 @@
         <v>27524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -9798,13 +9825,13 @@
         <v>27524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9883,13 +9910,13 @@
         <v>15413</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -9898,13 +9925,13 @@
         <v>15413</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9932,13 +9959,13 @@
         <v>26940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -9947,13 +9974,13 @@
         <v>26940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9981,13 +10008,13 @@
         <v>16776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -9996,13 +10023,13 @@
         <v>16776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10030,13 +10057,13 @@
         <v>5821</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -10045,13 +10072,13 @@
         <v>5821</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10130,13 +10157,13 @@
         <v>22194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -10145,13 +10172,13 @@
         <v>22194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10179,13 +10206,13 @@
         <v>32991</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -10194,13 +10221,13 @@
         <v>32991</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10228,13 +10255,13 @@
         <v>27502</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -10243,13 +10270,13 @@
         <v>27502</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,13 +10304,13 @@
         <v>9699</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -10292,13 +10319,13 @@
         <v>9699</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10352,7 +10379,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -10377,13 +10404,13 @@
         <v>79322</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>121</v>
@@ -10392,13 +10419,13 @@
         <v>79322</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10426,13 +10453,13 @@
         <v>100792</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -10441,13 +10468,13 @@
         <v>100792</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10502,13 @@
         <v>102494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
@@ -10490,13 +10517,13 @@
         <v>102494</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10524,13 +10551,13 @@
         <v>75724</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -10539,13 +10566,13 @@
         <v>75724</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10599,7 +10626,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10624,13 +10651,13 @@
         <v>54496</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M39" s="7">
         <v>78</v>
@@ -10639,13 +10666,13 @@
         <v>54496</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10673,13 +10700,13 @@
         <v>125222</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M40" s="7">
         <v>155</v>
@@ -10688,13 +10715,13 @@
         <v>125222</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10722,13 +10749,13 @@
         <v>83500</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M41" s="7">
         <v>103</v>
@@ -10737,13 +10764,13 @@
         <v>83500</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10771,13 +10798,13 @@
         <v>24535</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M42" s="7">
         <v>29</v>
@@ -10786,13 +10813,13 @@
         <v>24535</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10871,13 +10898,13 @@
         <v>495148</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>123</v>
+        <v>416</v>
       </c>
       <c r="M44" s="7">
         <v>798</v>
@@ -10886,13 +10913,13 @@
         <v>495148</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>123</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10920,13 +10947,13 @@
         <v>539232</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M45" s="7">
         <v>808</v>
@@ -10935,13 +10962,13 @@
         <v>539232</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10969,13 +10996,13 @@
         <v>348271</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>152</v>
+        <v>422</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
@@ -10984,13 +11011,13 @@
         <v>348271</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>152</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11018,13 +11045,13 @@
         <v>224194</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>140</v>
+        <v>425</v>
       </c>
       <c r="M47" s="7">
         <v>314</v>
@@ -11033,13 +11060,13 @@
         <v>224194</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>140</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11093,7 +11120,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847DA197-0DBA-48E7-A72E-5AEF90184BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DFD98F-BF9C-469F-8851-246C1861FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0E2BD8-9E27-45AE-98E4-8F0A64BBF79C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{016ECB0C-E096-4D48-B892-B1F9326F09F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="425">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -80,1243 +80,1240 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>12,68%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>25,87%</t>
   </si>
   <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>24,4%</t>
   </si>
   <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2016 (Tasa respuesta: 32,27%)</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>34,39%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>33,56%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18D79A6-04E5-40BE-8251-ECC623B25E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FE3D77-822E-49DE-8EF2-ACF892889EEC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3149,13 +3146,13 @@
         <v>34404</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3164,13 +3161,13 @@
         <v>34404</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3195,13 @@
         <v>29246</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -3213,13 +3210,13 @@
         <v>29246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3244,13 @@
         <v>24525</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -3262,13 +3259,13 @@
         <v>24525</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3319,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3347,13 +3344,13 @@
         <v>93556</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -3362,13 +3359,13 @@
         <v>93556</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3393,13 @@
         <v>116416</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>114</v>
@@ -3411,13 +3408,13 @@
         <v>116416</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3442,7 @@
         <v>109971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>100</v>
@@ -3460,7 +3457,7 @@
         <v>109971</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>100</v>
@@ -4087,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEB7C52-6EDD-4460-A283-324266CC62D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A0A90-4BFC-4A9A-8EB2-7C2A4303DA9F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4457,7 +4454,7 @@
         <v>132</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -4472,7 +4469,7 @@
         <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4497,13 @@
         <v>120374</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -4515,13 +4512,13 @@
         <v>120374</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4546,13 @@
         <v>111131</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -4564,13 +4561,13 @@
         <v>111131</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4595,13 @@
         <v>75164</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -4613,13 +4610,13 @@
         <v>75164</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4695,13 @@
         <v>35259</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -4713,13 +4710,13 @@
         <v>35259</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4744,13 @@
         <v>79424</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M15" s="7">
         <v>74</v>
@@ -4762,13 +4759,13 @@
         <v>79424</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4793,13 @@
         <v>44210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4811,13 +4808,13 @@
         <v>44210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4842,13 @@
         <v>33678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -4860,13 +4857,13 @@
         <v>33678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4942,13 @@
         <v>83761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -4960,13 +4957,13 @@
         <v>83761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4991,13 @@
         <v>131189</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -5009,13 +5006,13 @@
         <v>131189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5040,13 @@
         <v>149369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -5058,13 +5055,13 @@
         <v>149369</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5089,13 @@
         <v>95823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -5107,13 +5104,13 @@
         <v>95823</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5189,13 @@
         <v>18872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5207,13 +5204,13 @@
         <v>18872</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5238,13 @@
         <v>50806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5256,13 +5253,13 @@
         <v>50806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5287,13 @@
         <v>43272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -5305,13 +5302,13 @@
         <v>43272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5336,13 @@
         <v>23714</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -5354,13 +5351,13 @@
         <v>23714</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5436,13 @@
         <v>40626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5454,13 +5451,13 @@
         <v>40626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5485,13 @@
         <v>58085</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5503,13 +5500,13 @@
         <v>58085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5534,13 @@
         <v>33850</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -5552,13 +5549,13 @@
         <v>33850</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5583,13 @@
         <v>20038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5601,13 +5598,13 @@
         <v>20038</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,7 +5658,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5686,13 +5683,13 @@
         <v>92492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>85</v>
@@ -5701,13 +5698,13 @@
         <v>92492</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5732,13 @@
         <v>150691</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5750,13 +5747,13 @@
         <v>150691</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5781,13 @@
         <v>114871</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -5799,13 +5796,13 @@
         <v>114871</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5830,13 @@
         <v>80321</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>69</v>
@@ -5848,13 +5845,13 @@
         <v>80321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5930,13 @@
         <v>102666</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="M39" s="7">
         <v>94</v>
@@ -5948,13 +5945,13 @@
         <v>102666</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5979,13 @@
         <v>199780</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M40" s="7">
         <v>185</v>
@@ -5997,13 +5994,13 @@
         <v>199780</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6028,13 @@
         <v>142026</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M41" s="7">
         <v>130</v>
@@ -6046,13 +6043,13 @@
         <v>142026</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6077,13 @@
         <v>85820</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M42" s="7">
         <v>77</v>
@@ -6095,13 +6092,13 @@
         <v>85820</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6177,13 @@
         <v>446289</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M44" s="7">
         <v>411</v>
@@ -6195,13 +6192,13 @@
         <v>446289</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6226,13 @@
         <v>790350</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M45" s="7">
         <v>731</v>
@@ -6244,13 +6241,13 @@
         <v>790350</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6275,13 @@
         <v>638729</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M46" s="7">
         <v>586</v>
@@ -6293,13 +6290,13 @@
         <v>638729</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6324,13 @@
         <v>414556</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M47" s="7">
         <v>376</v>
@@ -6342,13 +6339,13 @@
         <v>414556</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,7 +6423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D4D6E-DBB3-427A-A126-D8FFBA3F6872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6DC115-4FEB-4E3A-A18A-3C2AC6F4CBC2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6443,7 +6440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6566,10 +6563,10 @@
         <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6581,10 +6578,10 @@
         <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6609,13 @@
         <v>75507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6627,13 +6624,13 @@
         <v>75507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6658,13 @@
         <v>56023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -6676,13 +6673,13 @@
         <v>56023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6707,13 @@
         <v>35124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -6725,13 +6722,13 @@
         <v>35124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6807,13 @@
         <v>88153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6825,13 +6822,13 @@
         <v>88153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6856,13 @@
         <v>182623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -6874,13 +6871,13 @@
         <v>182623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6905,13 @@
         <v>72328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -6923,13 +6920,13 @@
         <v>72328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6954,13 @@
         <v>41060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6972,13 +6969,13 @@
         <v>41060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7054,13 @@
         <v>75644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7072,13 +7069,13 @@
         <v>75644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7103,13 @@
         <v>113194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>112</v>
@@ -7121,13 +7118,13 @@
         <v>113194</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7152,13 @@
         <v>46297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -7170,13 +7167,13 @@
         <v>46297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7201,13 @@
         <v>26105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7219,13 +7216,13 @@
         <v>26105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7301,13 @@
         <v>55527</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -7319,13 +7316,13 @@
         <v>55527</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7350,13 @@
         <v>104703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7368,13 +7365,13 @@
         <v>104703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7399,13 @@
         <v>70879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -7417,13 +7414,13 @@
         <v>70879</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7448,13 @@
         <v>38780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -7466,13 +7463,13 @@
         <v>38780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7548,13 @@
         <v>16818</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7566,13 +7563,13 @@
         <v>16818</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7597,13 @@
         <v>47659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7615,13 +7612,13 @@
         <v>47659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7646,13 @@
         <v>22332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -7664,13 +7661,13 @@
         <v>22332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7695,13 @@
         <v>7880</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7713,13 +7710,13 @@
         <v>7880</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7795,13 @@
         <v>17242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -7813,13 +7810,13 @@
         <v>17242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7844,13 @@
         <v>29868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -7862,13 +7859,13 @@
         <v>29868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7896,13 +7893,13 @@
         <v>10736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -7911,13 +7908,13 @@
         <v>10736</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7942,13 @@
         <v>4897</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7960,13 +7957,13 @@
         <v>4897</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,7 +8017,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -8045,13 +8042,13 @@
         <v>102633</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -8060,13 +8057,13 @@
         <v>102633</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8091,13 @@
         <v>171465</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -8109,13 +8106,13 @@
         <v>171465</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8143,13 +8140,13 @@
         <v>91494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M36" s="7">
         <v>88</v>
@@ -8158,13 +8155,13 @@
         <v>91494</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8189,13 @@
         <v>54604</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8207,13 +8204,13 @@
         <v>54604</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8289,13 @@
         <v>138760</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M39" s="7">
         <v>124</v>
@@ -8307,13 +8304,13 @@
         <v>138760</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,13 +8338,13 @@
         <v>206180</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M40" s="7">
         <v>194</v>
@@ -8356,13 +8353,13 @@
         <v>206180</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8390,13 +8387,13 @@
         <v>124152</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M41" s="7">
         <v>115</v>
@@ -8405,13 +8402,13 @@
         <v>124152</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,13 +8436,13 @@
         <v>74271</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M42" s="7">
         <v>67</v>
@@ -8454,13 +8451,13 @@
         <v>74271</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8539,13 +8536,13 @@
         <v>530927</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M44" s="7">
         <v>484</v>
@@ -8554,13 +8551,13 @@
         <v>530927</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,13 +8585,13 @@
         <v>931197</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M45" s="7">
         <v>888</v>
@@ -8603,13 +8600,13 @@
         <v>931197</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8637,13 +8634,13 @@
         <v>494240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="M46" s="7">
         <v>478</v>
@@ -8652,13 +8649,13 @@
         <v>494240</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8686,13 +8683,13 @@
         <v>282721</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M47" s="7">
         <v>270</v>
@@ -8701,13 +8698,13 @@
         <v>282721</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8785,7 +8782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6AD2E6-FB06-4690-9168-739A0A500A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1A20BA-7B58-42CA-84E6-725105152328}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8802,7 +8799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8922,13 +8919,13 @@
         <v>58147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -8937,13 +8934,13 @@
         <v>58147</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,13 +8968,13 @@
         <v>59602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -8986,13 +8983,13 @@
         <v>59602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,13 +9017,13 @@
         <v>17906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -9035,13 +9032,13 @@
         <v>17906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,13 +9066,13 @@
         <v>24282</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -9084,13 +9081,13 @@
         <v>24282</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9169,13 +9166,13 @@
         <v>101810</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -9184,13 +9181,13 @@
         <v>101810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9218,13 +9215,13 @@
         <v>83034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -9233,13 +9230,13 @@
         <v>83034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,13 +9264,13 @@
         <v>37319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -9282,13 +9279,13 @@
         <v>37319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9316,13 +9313,13 @@
         <v>28336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -9331,13 +9328,13 @@
         <v>28336</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9413,13 @@
         <v>62416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -9431,13 +9428,13 @@
         <v>62416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9465,13 +9462,13 @@
         <v>47724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -9480,13 +9477,13 @@
         <v>47724</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9514,13 +9511,13 @@
         <v>28412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -9529,13 +9526,13 @@
         <v>28412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9563,13 +9560,13 @@
         <v>28273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -9578,13 +9575,13 @@
         <v>28273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9663,13 +9660,13 @@
         <v>101350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -9678,13 +9675,13 @@
         <v>101350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9712,13 +9709,13 @@
         <v>62927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -9727,13 +9724,13 @@
         <v>62927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9761,13 +9758,13 @@
         <v>34363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -9776,13 +9773,13 @@
         <v>34363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9810,13 +9807,13 @@
         <v>27524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -9825,13 +9822,13 @@
         <v>27524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9910,13 +9907,13 @@
         <v>15413</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -9925,13 +9922,13 @@
         <v>15413</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9959,13 +9956,13 @@
         <v>26940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -9974,13 +9971,13 @@
         <v>26940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,13 +10005,13 @@
         <v>16776</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -10023,13 +10020,13 @@
         <v>16776</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10057,13 +10054,13 @@
         <v>5821</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -10072,13 +10069,13 @@
         <v>5821</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10157,13 +10154,13 @@
         <v>22194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -10172,13 +10169,13 @@
         <v>22194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10206,13 +10203,13 @@
         <v>32991</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -10221,13 +10218,13 @@
         <v>32991</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10255,13 +10252,13 @@
         <v>27502</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -10270,13 +10267,13 @@
         <v>27502</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>390</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10304,13 +10301,13 @@
         <v>9699</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -10319,13 +10316,13 @@
         <v>9699</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10379,7 +10376,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -10404,13 +10401,13 @@
         <v>79322</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>121</v>
@@ -10419,13 +10416,13 @@
         <v>79322</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10453,13 +10450,13 @@
         <v>100792</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -10468,13 +10465,13 @@
         <v>100792</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10502,13 +10499,13 @@
         <v>102494</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
@@ -10517,13 +10514,13 @@
         <v>102494</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10551,13 +10548,13 @@
         <v>75724</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -10566,13 +10563,13 @@
         <v>75724</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10651,13 +10648,13 @@
         <v>54496</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M39" s="7">
         <v>78</v>
@@ -10666,13 +10663,13 @@
         <v>54496</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10700,13 +10697,13 @@
         <v>125222</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M40" s="7">
         <v>155</v>
@@ -10715,13 +10712,13 @@
         <v>125222</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10749,13 +10746,13 @@
         <v>83500</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M41" s="7">
         <v>103</v>
@@ -10764,13 +10761,13 @@
         <v>83500</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10798,13 +10795,13 @@
         <v>24535</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M42" s="7">
         <v>29</v>
@@ -10813,13 +10810,13 @@
         <v>24535</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10898,13 +10895,13 @@
         <v>495148</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M44" s="7">
         <v>798</v>
@@ -10913,13 +10910,13 @@
         <v>495148</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10947,13 +10944,13 @@
         <v>539232</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M45" s="7">
         <v>808</v>
@@ -10962,13 +10959,13 @@
         <v>539232</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10996,13 +10993,13 @@
         <v>348271</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
@@ -11011,13 +11008,13 @@
         <v>348271</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11045,13 +11042,13 @@
         <v>224194</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M47" s="7">
         <v>314</v>
@@ -11060,13 +11057,13 @@
         <v>224194</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DFD98F-BF9C-469F-8851-246C1861FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB8A7BF-B6E6-4925-938B-024523633D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{016ECB0C-E096-4D48-B892-B1F9326F09F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3DE51190-114F-42F0-AF93-F2C0E948CE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="435">
   <si>
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2007 (Tasa respuesta: 26,57%)</t>
   </si>
@@ -434,6 +434,42 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2012 (Tasa respuesta: 32,33%)</t>
   </si>
   <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
     <t>19,14%</t>
   </si>
   <si>
@@ -494,37 +530,40 @@
     <t>12,16%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>13,81%</t>
@@ -1007,313 +1046,304 @@
     <t>Población según el tiempo transcurrido desde la última citología vaginal que le hicieron en 2023 (Tasa respuesta: 27,56%)</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FE3D77-822E-49DE-8EF2-ACF892889EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED0AB0C-75AC-4A52-91DF-0D6AF50F4C4B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4031,7 +4061,7 @@
         <v>1730</v>
       </c>
       <c r="I48" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>27</v>
@@ -4046,7 +4076,7 @@
         <v>1730</v>
       </c>
       <c r="N48" s="7">
-        <v>1779110</v>
+        <v>1779109</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>27</v>
@@ -4084,7 +4114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A0A90-4BFC-4A9A-8EB2-7C2A4303DA9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1C9592-8AA5-463A-99A4-B338E37167BC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,30 +4245,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I4" s="7">
+        <v>37262</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="N4" s="7">
+        <v>37262</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,30 +4294,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="I5" s="7">
+        <v>45457</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="N5" s="7">
+        <v>45457</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,30 +4343,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="I6" s="7">
+        <v>77757</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="N6" s="7">
+        <v>77757</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,30 +4392,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I7" s="7">
+        <v>40326</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N7" s="7">
+        <v>40326</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,30 +4441,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="I8" s="7">
+        <v>200802</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="N8" s="7">
+        <v>200802</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,10 +4498,10 @@
         <v>72613</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>94</v>
@@ -4463,10 +4513,10 @@
         <v>72613</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>94</v>
@@ -4497,13 +4547,13 @@
         <v>120374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -4512,13 +4562,13 @@
         <v>120374</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,10 +4596,10 @@
         <v>111131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>31</v>
@@ -4561,10 +4611,10 @@
         <v>111131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>31</v>
@@ -4595,13 +4645,13 @@
         <v>75164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -4610,13 +4660,13 @@
         <v>75164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4745,13 @@
         <v>35259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -4710,13 +4760,13 @@
         <v>35259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4794,13 @@
         <v>79424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M15" s="7">
         <v>74</v>
@@ -4759,13 +4809,13 @@
         <v>79424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,10 +4846,10 @@
         <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4811,10 +4861,10 @@
         <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,10 +4892,10 @@
         <v>33678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4857,10 +4907,10 @@
         <v>33678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -4936,34 +4986,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7">
-        <v>83761</v>
+        <v>46500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="N19" s="7">
-        <v>83761</v>
+        <v>46500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,34 +5035,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>131189</v>
+        <v>85733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>131189</v>
+        <v>85733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,34 +5084,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="I21" s="7">
-        <v>149369</v>
+        <v>71613</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M21" s="7">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="N21" s="7">
-        <v>149369</v>
+        <v>71613</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,34 +5133,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I22" s="7">
-        <v>95823</v>
+        <v>55497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N22" s="7">
-        <v>95823</v>
+        <v>55497</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,10 +5182,10 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>423</v>
+        <v>247</v>
       </c>
       <c r="I23" s="7">
-        <v>460143</v>
+        <v>259342</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -5147,10 +5197,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>423</v>
+        <v>247</v>
       </c>
       <c r="N23" s="7">
-        <v>460143</v>
+        <v>259342</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -5189,13 +5239,13 @@
         <v>18872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -5204,13 +5254,13 @@
         <v>18872</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5288,13 @@
         <v>50806</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5253,13 +5303,13 @@
         <v>50806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5337,13 @@
         <v>43272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -5302,13 +5352,13 @@
         <v>43272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5386,13 @@
         <v>23714</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -5351,13 +5401,13 @@
         <v>23714</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5486,13 @@
         <v>40626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5451,13 +5501,13 @@
         <v>40626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5535,13 @@
         <v>58085</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5500,13 +5550,13 @@
         <v>58085</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5584,13 @@
         <v>33850</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -5549,13 +5599,13 @@
         <v>33850</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5633,13 @@
         <v>20038</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -5598,13 +5648,13 @@
         <v>20038</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5733,13 @@
         <v>92492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>85</v>
@@ -5698,13 +5748,13 @@
         <v>92492</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5782,13 @@
         <v>150691</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>139</v>
@@ -5747,13 +5797,13 @@
         <v>150691</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5831,13 @@
         <v>114871</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
         <v>105</v>
@@ -5796,13 +5846,13 @@
         <v>114871</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5880,13 @@
         <v>80321</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>69</v>
@@ -5845,13 +5895,13 @@
         <v>80321</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,10 +5980,10 @@
         <v>102666</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>94</v>
@@ -5945,10 +5995,10 @@
         <v>102666</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>94</v>
@@ -5979,13 +6029,13 @@
         <v>199780</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M40" s="7">
         <v>185</v>
@@ -5994,13 +6044,13 @@
         <v>199780</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6078,13 @@
         <v>142026</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="M41" s="7">
         <v>130</v>
@@ -6043,13 +6093,13 @@
         <v>142026</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6127,13 @@
         <v>85820</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M42" s="7">
         <v>77</v>
@@ -6092,13 +6142,13 @@
         <v>85820</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6227,13 @@
         <v>446289</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M44" s="7">
         <v>411</v>
@@ -6192,13 +6242,13 @@
         <v>446289</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6276,13 @@
         <v>790350</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M45" s="7">
         <v>731</v>
@@ -6241,13 +6291,13 @@
         <v>790350</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6325,13 @@
         <v>638729</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M46" s="7">
         <v>586</v>
@@ -6290,13 +6340,13 @@
         <v>638729</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6374,13 @@
         <v>414556</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="M47" s="7">
         <v>376</v>
@@ -6339,13 +6389,13 @@
         <v>414556</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6DC115-4FEB-4E3A-A18A-3C2AC6F4CBC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EC91D1-9E53-46C8-83B2-FE2CEADCE89C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6440,7 +6490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6563,10 +6613,10 @@
         <v>68</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6578,10 +6628,10 @@
         <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6659,13 @@
         <v>75507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>72</v>
@@ -6624,13 +6674,13 @@
         <v>75507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6708,13 @@
         <v>56023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -6673,13 +6723,13 @@
         <v>56023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6757,13 @@
         <v>35124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -6722,13 +6772,13 @@
         <v>35124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6857,13 @@
         <v>88153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6822,13 +6872,13 @@
         <v>88153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6906,13 @@
         <v>182623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -6871,13 +6921,13 @@
         <v>182623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6955,13 @@
         <v>72328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -6920,13 +6970,13 @@
         <v>72328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +7004,13 @@
         <v>41060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -6969,13 +7019,13 @@
         <v>41060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7104,13 @@
         <v>75644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7069,13 +7119,13 @@
         <v>75644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7153,13 @@
         <v>113194</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="M15" s="7">
         <v>112</v>
@@ -7118,13 +7168,13 @@
         <v>113194</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7202,13 @@
         <v>46297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -7167,13 +7217,13 @@
         <v>46297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7251,13 @@
         <v>26105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7216,13 +7266,13 @@
         <v>26105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,31 +7348,31 @@
         <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>55527</v>
+        <v>55526</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>55527</v>
+        <v>55526</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,31 +7397,31 @@
         <v>95</v>
       </c>
       <c r="I20" s="7">
-        <v>104703</v>
+        <v>104702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
       </c>
       <c r="N20" s="7">
-        <v>104703</v>
+        <v>104702</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,10 +7452,10 @@
         <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -7417,10 +7467,10 @@
         <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7498,13 @@
         <v>38780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -7463,13 +7513,13 @@
         <v>38780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,7 +7544,7 @@
         <v>251</v>
       </c>
       <c r="I23" s="7">
-        <v>269888</v>
+        <v>269887</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -7509,7 +7559,7 @@
         <v>251</v>
       </c>
       <c r="N23" s="7">
-        <v>269888</v>
+        <v>269887</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -7548,13 +7598,13 @@
         <v>16818</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7563,13 +7613,13 @@
         <v>16818</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7647,13 @@
         <v>47659</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -7612,13 +7662,13 @@
         <v>47659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7696,13 @@
         <v>22332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -7661,13 +7711,13 @@
         <v>22332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7745,13 @@
         <v>7880</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7710,13 +7760,13 @@
         <v>7880</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,13 +7845,13 @@
         <v>17242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -7810,13 +7860,13 @@
         <v>17242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7894,13 @@
         <v>29868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -7859,13 +7909,13 @@
         <v>29868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7943,13 @@
         <v>10736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -7908,13 +7958,13 @@
         <v>10736</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7992,13 @@
         <v>4897</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7957,13 +8007,13 @@
         <v>4897</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,13 +8092,13 @@
         <v>102633</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -8057,13 +8107,13 @@
         <v>102633</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8141,13 @@
         <v>171465</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M35" s="7">
         <v>163</v>
@@ -8106,13 +8156,13 @@
         <v>171465</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8190,13 @@
         <v>91494</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="M36" s="7">
         <v>88</v>
@@ -8155,13 +8205,13 @@
         <v>91494</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8239,13 @@
         <v>54604</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -8204,13 +8254,13 @@
         <v>54604</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8339,13 @@
         <v>138760</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="M39" s="7">
         <v>124</v>
@@ -8304,13 +8354,13 @@
         <v>138760</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,13 +8388,13 @@
         <v>206180</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M40" s="7">
         <v>194</v>
@@ -8353,13 +8403,13 @@
         <v>206180</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,13 +8437,13 @@
         <v>124152</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="M41" s="7">
         <v>115</v>
@@ -8402,13 +8452,13 @@
         <v>124152</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8486,13 @@
         <v>74271</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="M42" s="7">
         <v>67</v>
@@ -8451,13 +8501,13 @@
         <v>74271</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8536,13 +8586,13 @@
         <v>530927</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M44" s="7">
         <v>484</v>
@@ -8551,13 +8601,13 @@
         <v>530927</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,13 +8635,13 @@
         <v>931197</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="M45" s="7">
         <v>888</v>
@@ -8600,13 +8650,13 @@
         <v>931197</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8634,7 +8684,7 @@
         <v>494240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>128</v>
@@ -8649,7 +8699,7 @@
         <v>494240</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>128</v>
@@ -8683,13 +8733,13 @@
         <v>282721</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>270</v>
@@ -8698,13 +8748,13 @@
         <v>282721</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8782,7 +8832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1A20BA-7B58-42CA-84E6-725105152328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBB5A07-DC11-4286-9D2A-9A046188401A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8799,7 +8849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8916,31 +8966,31 @@
         <v>122</v>
       </c>
       <c r="I4" s="7">
-        <v>58147</v>
+        <v>60362</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>58147</v>
+        <v>60362</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8965,31 +9015,31 @@
         <v>123</v>
       </c>
       <c r="I5" s="7">
-        <v>59602</v>
+        <v>63610</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
       </c>
       <c r="N5" s="7">
-        <v>59602</v>
+        <v>63610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9014,31 +9064,31 @@
         <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>17906</v>
+        <v>18868</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>17906</v>
+        <v>18868</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9063,31 +9113,31 @@
         <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>24282</v>
+        <v>26114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>24282</v>
+        <v>26114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9112,7 +9162,7 @@
         <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>159937</v>
+        <v>168954</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>27</v>
@@ -9127,7 +9177,7 @@
         <v>323</v>
       </c>
       <c r="N8" s="7">
-        <v>159937</v>
+        <v>168954</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -9163,31 +9213,31 @@
         <v>139</v>
       </c>
       <c r="I9" s="7">
-        <v>101810</v>
+        <v>94042</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
       </c>
       <c r="N9" s="7">
-        <v>101810</v>
+        <v>94042</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9212,31 +9262,31 @@
         <v>105</v>
       </c>
       <c r="I10" s="7">
-        <v>83034</v>
+        <v>77527</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>83034</v>
+        <v>77527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9261,31 +9311,31 @@
         <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>37319</v>
+        <v>34965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>37319</v>
+        <v>34965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9310,31 +9360,31 @@
         <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>28336</v>
+        <v>26250</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>28336</v>
+        <v>26250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,7 +9409,7 @@
         <v>325</v>
       </c>
       <c r="I13" s="7">
-        <v>250498</v>
+        <v>232783</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>27</v>
@@ -9374,7 +9424,7 @@
         <v>325</v>
       </c>
       <c r="N13" s="7">
-        <v>250498</v>
+        <v>232783</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>27</v>
@@ -9410,31 +9460,31 @@
         <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>62416</v>
+        <v>57878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
       </c>
       <c r="N14" s="7">
-        <v>62416</v>
+        <v>57878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9459,31 +9509,31 @@
         <v>70</v>
       </c>
       <c r="I15" s="7">
-        <v>47724</v>
+        <v>44701</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>349</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>47724</v>
+        <v>44701</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9508,31 +9558,31 @@
         <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>28412</v>
+        <v>26637</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
       </c>
       <c r="N16" s="7">
-        <v>28412</v>
+        <v>26637</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,31 +9607,31 @@
         <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>28273</v>
+        <v>26507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>28273</v>
+        <v>26507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9606,7 +9656,7 @@
         <v>255</v>
       </c>
       <c r="I18" s="7">
-        <v>166825</v>
+        <v>155723</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>27</v>
@@ -9621,7 +9671,7 @@
         <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>166825</v>
+        <v>155723</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>27</v>
@@ -9657,31 +9707,31 @@
         <v>142</v>
       </c>
       <c r="I19" s="7">
-        <v>101350</v>
+        <v>173814</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
       </c>
       <c r="N19" s="7">
-        <v>101350</v>
+        <v>173814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9706,31 +9756,31 @@
         <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>62927</v>
+        <v>58051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>62927</v>
+        <v>58051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9755,31 +9805,31 @@
         <v>43</v>
       </c>
       <c r="I21" s="7">
-        <v>34363</v>
+        <v>31931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
       </c>
       <c r="N21" s="7">
-        <v>34363</v>
+        <v>31931</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9804,31 +9854,31 @@
         <v>39</v>
       </c>
       <c r="I22" s="7">
-        <v>27524</v>
+        <v>25227</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>27524</v>
+        <v>25227</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9853,7 +9903,7 @@
         <v>314</v>
       </c>
       <c r="I23" s="7">
-        <v>226164</v>
+        <v>289023</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>27</v>
@@ -9868,7 +9918,7 @@
         <v>314</v>
       </c>
       <c r="N23" s="7">
-        <v>226164</v>
+        <v>289023</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>27</v>
@@ -9904,31 +9954,31 @@
         <v>38</v>
       </c>
       <c r="I24" s="7">
-        <v>15413</v>
+        <v>13929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
       </c>
       <c r="N24" s="7">
-        <v>15413</v>
+        <v>13929</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9953,31 +10003,31 @@
         <v>69</v>
       </c>
       <c r="I25" s="7">
-        <v>26940</v>
+        <v>24838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>26940</v>
+        <v>24838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10002,31 +10052,31 @@
         <v>36</v>
       </c>
       <c r="I26" s="7">
-        <v>16776</v>
+        <v>15309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
       </c>
       <c r="N26" s="7">
-        <v>16776</v>
+        <v>15309</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10051,31 +10101,31 @@
         <v>13</v>
       </c>
       <c r="I27" s="7">
-        <v>5821</v>
+        <v>5327</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
       </c>
       <c r="N27" s="7">
-        <v>5821</v>
+        <v>5327</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10100,7 +10150,7 @@
         <v>156</v>
       </c>
       <c r="I28" s="7">
-        <v>64950</v>
+        <v>59403</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>27</v>
@@ -10115,7 +10165,7 @@
         <v>156</v>
       </c>
       <c r="N28" s="7">
-        <v>64950</v>
+        <v>59403</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>27</v>
@@ -10151,31 +10201,31 @@
         <v>51</v>
       </c>
       <c r="I29" s="7">
-        <v>22194</v>
+        <v>20740</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
       </c>
       <c r="N29" s="7">
-        <v>22194</v>
+        <v>20740</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10200,31 +10250,31 @@
         <v>54</v>
       </c>
       <c r="I30" s="7">
-        <v>32991</v>
+        <v>30707</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
       </c>
       <c r="N30" s="7">
-        <v>32991</v>
+        <v>30707</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,31 +10299,31 @@
         <v>47</v>
       </c>
       <c r="I31" s="7">
-        <v>27502</v>
+        <v>25686</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>397</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
       </c>
       <c r="N31" s="7">
-        <v>27502</v>
+        <v>25686</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>397</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10298,31 +10348,31 @@
         <v>16</v>
       </c>
       <c r="I32" s="7">
-        <v>9699</v>
+        <v>8970</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
       </c>
       <c r="N32" s="7">
-        <v>9699</v>
+        <v>8970</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10347,7 +10397,7 @@
         <v>168</v>
       </c>
       <c r="I33" s="7">
-        <v>92387</v>
+        <v>86104</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>27</v>
@@ -10362,7 +10412,7 @@
         <v>168</v>
       </c>
       <c r="N33" s="7">
-        <v>92387</v>
+        <v>86104</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>27</v>
@@ -10398,31 +10448,31 @@
         <v>121</v>
       </c>
       <c r="I34" s="7">
-        <v>79322</v>
+        <v>72590</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M34" s="7">
         <v>121</v>
       </c>
       <c r="N34" s="7">
-        <v>79322</v>
+        <v>72590</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10447,31 +10497,31 @@
         <v>142</v>
       </c>
       <c r="I35" s="7">
-        <v>100792</v>
+        <v>94557</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
       </c>
       <c r="N35" s="7">
-        <v>100792</v>
+        <v>94557</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10496,31 +10546,31 @@
         <v>139</v>
       </c>
       <c r="I36" s="7">
-        <v>102494</v>
+        <v>96004</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M36" s="7">
         <v>139</v>
       </c>
       <c r="N36" s="7">
-        <v>102494</v>
+        <v>96004</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10545,31 +10595,31 @@
         <v>102</v>
       </c>
       <c r="I37" s="7">
-        <v>75724</v>
+        <v>70724</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>412</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
       </c>
       <c r="N37" s="7">
-        <v>75724</v>
+        <v>70724</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>149</v>
+        <v>412</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10594,7 +10644,7 @@
         <v>504</v>
       </c>
       <c r="I38" s="7">
-        <v>358332</v>
+        <v>333875</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>27</v>
@@ -10609,7 +10659,7 @@
         <v>504</v>
       </c>
       <c r="N38" s="7">
-        <v>358332</v>
+        <v>333875</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>27</v>
@@ -10645,31 +10695,31 @@
         <v>78</v>
       </c>
       <c r="I39" s="7">
-        <v>54496</v>
+        <v>45668</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>403</v>
+        <v>251</v>
       </c>
       <c r="M39" s="7">
         <v>78</v>
       </c>
       <c r="N39" s="7">
-        <v>54496</v>
+        <v>45668</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>403</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10694,31 +10744,31 @@
         <v>155</v>
       </c>
       <c r="I40" s="7">
-        <v>125222</v>
+        <v>104426</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M40" s="7">
         <v>155</v>
       </c>
       <c r="N40" s="7">
-        <v>125222</v>
+        <v>104426</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10743,31 +10793,31 @@
         <v>103</v>
       </c>
       <c r="I41" s="7">
-        <v>83500</v>
+        <v>68989</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>409</v>
+        <v>171</v>
       </c>
       <c r="M41" s="7">
         <v>103</v>
       </c>
       <c r="N41" s="7">
-        <v>83500</v>
+        <v>68989</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>409</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10792,31 +10842,31 @@
         <v>29</v>
       </c>
       <c r="I42" s="7">
-        <v>24535</v>
+        <v>20511</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="M42" s="7">
         <v>29</v>
       </c>
       <c r="N42" s="7">
-        <v>24535</v>
+        <v>20511</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10841,7 +10891,7 @@
         <v>365</v>
       </c>
       <c r="I43" s="7">
-        <v>287753</v>
+        <v>239593</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>27</v>
@@ -10856,7 +10906,7 @@
         <v>365</v>
       </c>
       <c r="N43" s="7">
-        <v>287753</v>
+        <v>239593</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>27</v>
@@ -10892,31 +10942,31 @@
         <v>798</v>
       </c>
       <c r="I44" s="7">
-        <v>495148</v>
+        <v>539022</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M44" s="7">
         <v>798</v>
       </c>
       <c r="N44" s="7">
-        <v>495148</v>
+        <v>539022</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10941,31 +10991,31 @@
         <v>808</v>
       </c>
       <c r="I45" s="7">
-        <v>539232</v>
+        <v>498418</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M45" s="7">
         <v>808</v>
       </c>
       <c r="N45" s="7">
-        <v>539232</v>
+        <v>498418</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10990,31 +11040,31 @@
         <v>490</v>
       </c>
       <c r="I46" s="7">
-        <v>348271</v>
+        <v>318388</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="M46" s="7">
         <v>490</v>
       </c>
       <c r="N46" s="7">
-        <v>348271</v>
+        <v>318388</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>421</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11039,31 +11089,31 @@
         <v>314</v>
       </c>
       <c r="I47" s="7">
-        <v>224194</v>
+        <v>209630</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M47" s="7">
         <v>314</v>
       </c>
       <c r="N47" s="7">
-        <v>224194</v>
+        <v>209630</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11088,7 +11138,7 @@
         <v>2410</v>
       </c>
       <c r="I48" s="7">
-        <v>1606846</v>
+        <v>1565458</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>27</v>
@@ -11103,7 +11153,7 @@
         <v>2410</v>
       </c>
       <c r="N48" s="7">
-        <v>1606846</v>
+        <v>1565458</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>27</v>
